--- a/3d-druck_Planliste.xlsx
+++ b/3d-druck_Planliste.xlsx
@@ -593,7 +593,7 @@
     <col min="1" max="1" style="14" width="21.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="15" width="14.290714285714287" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="17.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="16" width="10.719285714285713" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="16" width="16.862142857142857" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
